--- a/helper/output/table.xlsx
+++ b/helper/output/table.xlsx
@@ -11,30 +11,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="8">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>2023-07-01</t>
-  </si>
-  <si>
-    <t>Transfer</t>
-  </si>
-  <si>
-    <t>$100</t>
-  </si>
-  <si>
-    <t>Payment for services</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>عدد الأندية</t>
+  </si>
+  <si>
+    <t>عدد الأفرع</t>
+  </si>
+  <si>
+    <t>المشتركين النشطين</t>
+  </si>
+  <si>
+    <t>المشتركين غير النشطين</t>
+  </si>
+  <si>
+    <t>عدد المشتركين الكلي</t>
+  </si>
+  <si>
+    <t>الأرباح الكلية</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>$8000</t>
   </si>
 </sst>
 </file>
@@ -411,13 +423,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="4" width="20" customWidth="1"/>
+    <col min="1" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,215 +442,31 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
